--- a/RUDN/Importance/Varible_muatal_class_in_Western Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Western Africa.xlsx
@@ -67,39 +67,39 @@
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -109,1120 +109,1120 @@
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Labor force, total</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
+    <t>Primary education, teachers (% female)</t>
   </si>
   <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% net)</t>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male</t>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
   </si>
   <si>
     <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
   </si>
   <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Use of Intermittent Preventive Treatment of malaria, 2+ doses of SP/Fansidar (% of pregnant women)</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Use of insecticide-treated bed nets (% of under-5 population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Unmet need for contraception (% of married women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
   </si>
   <si>
     <t>Children with fever receiving antimalarial drugs (% of children under age 5 with fever)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
     <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Use of insecticide-treated bed nets (% of under-5 population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Female headed households (% of households with a female head)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Unmet need for contraception (% of married women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
-  </si>
-  <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Demand for family planning satisfied by modern methods (% of married women with demand for family planning)</t>
-  </si>
-  <si>
-    <t>Female headed households (% of households with a female head)</t>
+    <t>Exclusive breastfeeding (% of children under 6 months)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: dung (% of households)</t>
   </si>
   <si>
     <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Exclusive breastfeeding (% of children under 6 months)</t>
+    <t>Main cooking fuel: charcoal (% of households)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Main cooking fuel: LPG/natural gas/biogas (% of households)</t>
   </si>
   <si>
-    <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Main cooking fuel: electricity  (% of households)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: dung (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: charcoal (% of households)</t>
-  </si>
-  <si>
-    <t>Main cooking fuel: electricity  (% of households)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9889930512135783</v>
+        <v>0.9534243521035579</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9420041930081444</v>
+        <v>0.9417425498893586</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9396732930784117</v>
+        <v>0.9404582224347695</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8765597892989792</v>
+        <v>0.8769260896652795</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8519048982364825</v>
+        <v>0.8496779935667169</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8496779935667169</v>
+        <v>0.8493535128010594</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.846972560420107</v>
+        <v>0.8466040740387308</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8466040740387308</v>
+        <v>0.8429793697002632</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8429793697002632</v>
+        <v>0.8404518908803305</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8404518908803305</v>
+        <v>0.8401354987516483</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.8401354987516483</v>
+        <v>0.8388235412636327</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.8388235412636327</v>
+        <v>0.8385669381132796</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.8387998374011798</v>
+        <v>0.8260596301408074</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8270785601537076</v>
+        <v>0.8259891648102446</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.8106305174049364</v>
+        <v>0.8152411032960338</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8043051328437014</v>
+        <v>0.8128741071485261</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8026348841004483</v>
+        <v>0.8043051328437014</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7945822849406319</v>
+        <v>0.8014122123795497</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7915464206628022</v>
+        <v>0.7945822849406319</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7866788031294598</v>
+        <v>0.7930880874768411</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7856292292083686</v>
+        <v>0.7915464206628022</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7837674146751699</v>
+        <v>0.7862286298077692</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7803445478626589</v>
+        <v>0.7837674146751699</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7782084730931955</v>
+        <v>0.7826084305838126</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7778770290216428</v>
+        <v>0.7803445478626589</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7696069539227404</v>
+        <v>0.7782084730931955</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7646161167373005</v>
+        <v>0.7730367374479223</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7622160910405713</v>
+        <v>0.7728853169628744</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7534977089708701</v>
+        <v>0.7697249035573528</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.7482939240133692</v>
+        <v>0.7696069539227404</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.739448659151912</v>
+        <v>0.7534977089708701</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7389356369141802</v>
+        <v>0.7383347151804913</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7383347151804913</v>
+        <v>0.7361380815773169</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7362296952837371</v>
+        <v>0.7328850312586737</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7328850312586737</v>
+        <v>0.7283074111174255</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7327655808212128</v>
+        <v>0.727009975519036</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7288414773505376</v>
+        <v>0.7232274122912334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.728071932310518</v>
+        <v>0.7214932713230486</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7258060220643709</v>
+        <v>0.7152785400427975</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7232274122912334</v>
+        <v>0.7133588011303413</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7222116175158144</v>
+        <v>0.7133588011303413</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7133588011303413</v>
+        <v>0.7109285379554524</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7133588011303413</v>
+        <v>0.7098466564282115</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7132271328027002</v>
+        <v>0.7094457574381501</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7098466564282115</v>
+        <v>0.7041067212782128</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7094457574381501</v>
+        <v>0.7028028652700054</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7041067212782128</v>
+        <v>0.701488730251121</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7028028652700054</v>
+        <v>0.6991472780721182</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.70097877990362</v>
+        <v>0.6990746490417892</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6990746490417892</v>
+        <v>0.6984988359659758</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6984988359659758</v>
+        <v>0.6976665158584459</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6976665158584459</v>
+        <v>0.6974283487174446</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6974283487174446</v>
+        <v>0.6938610134710106</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6950524328892809</v>
+        <v>0.6919287876662521</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6938610134710106</v>
+        <v>0.6918879117042869</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6916292556073846</v>
+        <v>0.6911297551078841</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.689435879901442</v>
+        <v>0.6890035693278522</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6890035693278522</v>
+        <v>0.6881013961042506</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6881013961042506</v>
+        <v>0.6867532402918091</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6867532402918091</v>
+        <v>0.6867229134757675</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6867229134757675</v>
+        <v>0.6866734589620278</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6866734589620278</v>
+        <v>0.6862018075975189</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6862018075975189</v>
+        <v>0.6850922245256541</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6850922245256541</v>
+        <v>0.6842468185755857</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6842468185755857</v>
+        <v>0.6842239624878057</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6842239624878057</v>
+        <v>0.681671020923875</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.681671020923875</v>
+        <v>0.6807177216889362</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6807177216889362</v>
+        <v>0.6805771742943143</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6805771742943143</v>
+        <v>0.6801890299743665</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6801890299743665</v>
+        <v>0.6789658887544572</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6789658887544572</v>
+        <v>0.6787792698178383</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6787792698178383</v>
+        <v>0.6787251572637258</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6787251572637258</v>
+        <v>0.6784201051729595</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6784201051729595</v>
+        <v>0.6779101984130529</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6779728508424487</v>
+        <v>0.6769701662230203</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6779101984130529</v>
+        <v>0.6769592469368912</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6769701662230203</v>
+        <v>0.6763423424738328</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6763423424738328</v>
+        <v>0.6759397131307006</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6759397131307006</v>
+        <v>0.675268096207279</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6755856205632649</v>
+        <v>0.6752447091404208</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.675268096207279</v>
+        <v>0.6751365572474051</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6752447091404208</v>
+        <v>0.6747986480729957</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6751365572474051</v>
+        <v>0.6747152254548709</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6747986480729957</v>
+        <v>0.6744752230242961</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6747152254548709</v>
+        <v>0.6738725290150085</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6744752230242961</v>
+        <v>0.6738413505942049</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6738725290150085</v>
+        <v>0.6738290590539557</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6738413505942049</v>
+        <v>0.6725178549954991</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6738290590539557</v>
+        <v>0.6722499856099828</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6725178549954991</v>
+        <v>0.6716384836496088</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6722499856099828</v>
+        <v>0.6716175038204228</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6716175038204228</v>
+        <v>0.6712084043728619</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6712084043728619</v>
+        <v>0.6711071800028914</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.6711155853626156</v>
+        <v>0.6709662853807428</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6711071800028914</v>
+        <v>0.6706641706313106</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6709662853807428</v>
+        <v>0.6704947963547934</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6706641706313106</v>
+        <v>0.6696273084236342</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6704947963547934</v>
+        <v>0.6693576031613104</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.669857103660811</v>
+        <v>0.6690601750073122</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6696273084236342</v>
+        <v>0.6681382554163622</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6684999194318317</v>
+        <v>0.6675965575362248</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.6682054741526113</v>
+        <v>0.6669840396465605</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.6681382554163622</v>
+        <v>0.6658938623824957</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6675965575362248</v>
+        <v>0.6656865910213781</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.6658938623824957</v>
+        <v>0.6640075863680703</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6656865910213781</v>
+        <v>0.6637213119027374</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6637213119027374</v>
+        <v>0.6606548734137496</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.6606548734137496</v>
+        <v>0.660456880345643</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.660456880345643</v>
+        <v>0.6567405942077342</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6599236823378183</v>
+        <v>0.6563878819293429</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6567405942077342</v>
+        <v>0.6535223081767887</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6535223081767887</v>
+        <v>0.6531443888258144</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6517489588589558</v>
+        <v>0.6502266716223832</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.6502266716223832</v>
+        <v>0.6496243027474047</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.6496243027474047</v>
+        <v>0.6474241932704541</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6474241932704541</v>
+        <v>0.6474041256235283</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.6474041256235283</v>
+        <v>0.6473382291735008</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.6473382291735008</v>
+        <v>0.646827799521992</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.646827799521992</v>
+        <v>0.6460684671894534</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.6460684671894534</v>
+        <v>0.6453066504491298</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.6453066504491298</v>
+        <v>0.6428174523312955</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6428174523312955</v>
+        <v>0.6410275907886867</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.6410275907886867</v>
+        <v>0.6385660489727496</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.6385660489727496</v>
+        <v>0.6362475423443306</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.6362475423443306</v>
+        <v>0.6362165037216205</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.6362165037216205</v>
+        <v>0.6346630075697082</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.6359363685339068</v>
+        <v>0.6343586263587335</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.6350846751718231</v>
+        <v>0.6322294204290475</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.6346630075697082</v>
+        <v>0.630908963035971</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.6343586263587335</v>
+        <v>0.6308643190253405</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.6331684491270975</v>
+        <v>0.6308643190253405</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.6324190359161199</v>
+        <v>0.6287118540224006</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.630908963035971</v>
+        <v>0.6280441455289787</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.6308643190253405</v>
+        <v>0.6267269929271646</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.6308643190253405</v>
+        <v>0.6262699548026991</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.6287118540224006</v>
+        <v>0.6236639257601864</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.6280441455289787</v>
+        <v>0.6231363299271608</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6274578119716554</v>
+        <v>0.6187732310695859</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.6267269929271646</v>
+        <v>0.6166802539655225</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6241704546435756</v>
+        <v>0.6158289902020131</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6236639257601864</v>
+        <v>0.6142861072483694</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6231363299271608</v>
+        <v>0.6137192001561202</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6187732310695859</v>
+        <v>0.6135071190136843</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6166802539655225</v>
+        <v>0.61314903565024</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.6158289902020131</v>
+        <v>0.6126784677440615</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.6137192001561202</v>
+        <v>0.6114917055369962</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6133530685824116</v>
+        <v>0.6075469589806473</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.61314903565024</v>
+        <v>0.6068444868496035</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6121757437210342</v>
+        <v>0.6034445890031694</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.6102695611966271</v>
+        <v>0.6034210411224785</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.6075469589806473</v>
+        <v>0.602358296881548</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.6068444868496035</v>
+        <v>0.6020815532781321</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.6059176106621771</v>
+        <v>0.6015626456883136</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.602358296881548</v>
+        <v>0.6014848059078406</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.6015626456883136</v>
+        <v>0.6009656461692332</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.6014848059078406</v>
+        <v>0.6006741169232495</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.6013933069518873</v>
+        <v>0.5987092332754289</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.6013933069518873</v>
+        <v>0.5981285186940284</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.6006741169232495</v>
+        <v>0.5976326678443398</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5987092332754289</v>
+        <v>0.597604274397773</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5976326678443398</v>
+        <v>0.5963701739682552</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.597604274397773</v>
+        <v>0.5960694413388217</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5963701739682552</v>
+        <v>0.5959348204484398</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5960694413388217</v>
+        <v>0.5959348204484398</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5959348204484398</v>
+        <v>0.5954750357463146</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5959348204484398</v>
+        <v>0.5938194576085534</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5938194576085534</v>
+        <v>0.589688729082986</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5931798272578213</v>
+        <v>0.589232014882648</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.5918094875226576</v>
+        <v>0.5868905946988803</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.589688729082986</v>
+        <v>0.586154612686465</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.589232014882648</v>
+        <v>0.5828791913387468</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.586154612686465</v>
+        <v>0.5826520808897313</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.5828791913387468</v>
+        <v>0.5821160719645706</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.5787043509152783</v>
+        <v>0.5813521087158204</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.5752675908051896</v>
+        <v>0.5767934653675719</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.5730220741443401</v>
+        <v>0.5761069483178753</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.5691506337773133</v>
+        <v>0.5760496648303586</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.5676246546337864</v>
+        <v>0.5752675908051896</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5676246546337864</v>
+        <v>0.573907334509375</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5645532672768838</v>
+        <v>0.5691506337773133</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5640053825396247</v>
+        <v>0.5683781260334355</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.5629584935450451</v>
+        <v>0.5676246546337864</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5610804803137097</v>
+        <v>0.5676246546337864</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.5599379978006358</v>
+        <v>0.5640053825396247</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.557664241614158</v>
+        <v>0.5610804803137097</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.5569180308959365</v>
+        <v>0.560032308166134</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5548729645951591</v>
+        <v>0.5581565519985983</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5506476160400107</v>
+        <v>0.557664241614158</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5469342019705461</v>
+        <v>0.5542462884124024</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.5434437459162622</v>
+        <v>0.5506476160400107</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5408025593263439</v>
+        <v>0.5407212499049949</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.5384368181844119</v>
+        <v>0.5395556144756222</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5381441291355655</v>
+        <v>0.5352275899230337</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5374606203571046</v>
+        <v>0.5328995293163574</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5352275899230337</v>
+        <v>0.5319778484118654</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5319778484118654</v>
+        <v>0.5310344107582545</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5304444926015299</v>
+        <v>0.5305718552579739</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5270921215577116</v>
+        <v>0.5285463689442862</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5269481614632487</v>
+        <v>0.5264737277936267</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5264737277936267</v>
+        <v>0.5244421667523638</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5233471999113051</v>
+        <v>0.5193876636522208</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.5216843188420965</v>
+        <v>0.5156847905980411</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.5193876636522208</v>
+        <v>0.5152968850429491</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.5156847905980411</v>
+        <v>0.5130321346895177</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5139478856052688</v>
+        <v>0.5124186104311719</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.5030695356451824</v>
+        <v>0.5121070744878813</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4992446754658577</v>
+        <v>0.5104521443832759</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4974924465654462</v>
+        <v>0.5030695356451824</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4937367885217696</v>
+        <v>0.4992446754658577</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4906423499282933</v>
+        <v>0.4986649909097043</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.4891723159278067</v>
+        <v>0.4981211533807115</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.489023305359527</v>
+        <v>0.4937367885217696</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4885994835057224</v>
+        <v>0.4936419153149889</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.4885043392041517</v>
+        <v>0.4906423499282933</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.4879725087886506</v>
+        <v>0.489023305359527</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.487801917062155</v>
+        <v>0.4885043392041517</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4841790740890708</v>
+        <v>0.4851193797540116</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4768275755735099</v>
+        <v>0.4820300608648715</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.4761894640111135</v>
+        <v>0.4770495083959054</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4707354343425914</v>
+        <v>0.4766680132552175</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4705618919238805</v>
+        <v>0.4739054233529085</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4693326483977918</v>
+        <v>0.4705618919238805</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4691953242803018</v>
+        <v>0.470258946061225</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4684045886456387</v>
+        <v>0.4683566333945153</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4616424618825821</v>
+        <v>0.4621551813192653</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4601794736687279</v>
+        <v>0.4615069572759152</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4519664364081926</v>
+        <v>0.4571191286905303</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4510518666881838</v>
+        <v>0.4556292827368789</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.4492709980480112</v>
+        <v>0.4519664364081926</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4487064314809306</v>
+        <v>0.4510518666881838</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.4482795956717018</v>
+        <v>0.4506382475605342</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4476271715079325</v>
+        <v>0.4503519281011765</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.4419170389964218</v>
+        <v>0.4487064314809306</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.4390118700276078</v>
+        <v>0.4482108067508279</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.4376441298912008</v>
+        <v>0.4469882398307379</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4356080356156149</v>
+        <v>0.4451784367260605</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.432157964763999</v>
+        <v>0.43822694067125</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4319875206438151</v>
+        <v>0.4368156640884644</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.4319875206438151</v>
+        <v>0.4356080356156149</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4315674558384339</v>
+        <v>0.4346597439428146</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.4312519833002206</v>
+        <v>0.4319875206438151</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.4311662488749044</v>
+        <v>0.4319875206438151</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.4281622533271072</v>
+        <v>0.4296630785940505</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.4263281640857484</v>
+        <v>0.4256472964864184</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.4256472964864184</v>
+        <v>0.423092354492308</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.4247577525862771</v>
+        <v>0.4214764347821711</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.424379900251233</v>
+        <v>0.4214060534388218</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.4238330385675422</v>
+        <v>0.4200553280162198</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4221699324209707</v>
+        <v>0.4188967539253146</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4181161852876032</v>
+        <v>0.4178984846905562</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4166234424414774</v>
+        <v>0.4162532355363171</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.4162532355363171</v>
+        <v>0.4161992939277155</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4112866147264818</v>
+        <v>0.4151261626699585</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.408002782514544</v>
+        <v>0.4070629386502482</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4070629386502482</v>
+        <v>0.4049461374828178</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4060008570721314</v>
+        <v>0.4045732475102115</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4044653682520487</v>
+        <v>0.4041315745693226</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4035201824854344</v>
+        <v>0.4038243426110231</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4011406918083813</v>
+        <v>0.4013842070672839</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4010712831394607</v>
+        <v>0.4011332687106135</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.4000078930433588</v>
+        <v>0.4010712831394607</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3948797056602005</v>
+        <v>0.3949150102667409</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3945968129411714</v>
+        <v>0.3857476355616427</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.3933326579046021</v>
+        <v>0.3811244847827118</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3895001720948854</v>
+        <v>0.3783217609057352</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.3811244847827118</v>
+        <v>0.3778975326404532</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3783217609057352</v>
+        <v>0.3744540447256322</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3778975326404532</v>
+        <v>0.3691566131182973</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3755404893799028</v>
+        <v>0.365948362454992</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.3744264991823865</v>
+        <v>0.362187923505473</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.3691566131182973</v>
+        <v>0.3609449471788988</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3644358783575998</v>
+        <v>0.3593519721566658</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.362187923505473</v>
+        <v>0.3569962308480601</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3609449471788988</v>
+        <v>0.3561250281590975</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.3600498325900356</v>
+        <v>0.3513664414857407</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3583243753249077</v>
+        <v>0.344974419120919</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3577244303185889</v>
+        <v>0.3445048497403951</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3523226899606042</v>
+        <v>0.3395330900507301</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3513664414857407</v>
+        <v>0.339422650998346</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3497855200871836</v>
+        <v>0.339422650998346</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3456231605598379</v>
+        <v>0.3391231043177236</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3416962744457928</v>
+        <v>0.3349875490116552</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.339422650998346</v>
+        <v>0.3330011939617075</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.339422650998346</v>
+        <v>0.3319263391968079</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3391231043177236</v>
+        <v>0.3255673802315802</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3373754174005665</v>
+        <v>0.3241777569329558</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.3349875490116552</v>
+        <v>0.3207766828419152</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3330011939617075</v>
+        <v>0.3206658118362569</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3293034339451377</v>
+        <v>0.3194448735686062</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3288064498729399</v>
+        <v>0.3190742492352816</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3276774517940684</v>
+        <v>0.3189197837752178</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3268262449690837</v>
+        <v>0.3171013221195293</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.3207766828419152</v>
+        <v>0.3158542800615605</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3189197837752178</v>
+        <v>0.3152304983851026</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3187625585296285</v>
+        <v>0.3132766910116849</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.3186823328831681</v>
+        <v>0.3054275247735097</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.3167236048919451</v>
+        <v>0.3053634543564445</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.3137731851584076</v>
+        <v>0.3035875588394701</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.3132766910116849</v>
+        <v>0.3018532272750547</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.3037898598648676</v>
+        <v>0.301245793217165</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3031278125517594</v>
+        <v>0.298983455863179</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3018532272750547</v>
+        <v>0.2933098181117229</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2958276569428184</v>
+        <v>0.2925947007279668</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2925947007279668</v>
+        <v>0.2819464619943803</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2924155275240878</v>
+        <v>0.2790338615017902</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2916291458430127</v>
+        <v>0.277472074839817</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2851389576533341</v>
+        <v>0.276548926577779</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2836090506714253</v>
+        <v>0.2762517849371267</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2789698498664201</v>
+        <v>0.2747548456081039</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2747575391303063</v>
+        <v>0.2736714695043208</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2693079333513411</v>
+        <v>0.2691164023267749</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2636147878243742</v>
+        <v>0.2662451498016813</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2626352135012218</v>
+        <v>0.2603207494205744</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2612535658259185</v>
+        <v>0.2579974941790582</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2608940175492942</v>
+        <v>0.2571195041748486</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2588757733381797</v>
+        <v>0.2536561486022371</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2572578881035061</v>
+        <v>0.2529532094272049</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2536561486022371</v>
+        <v>0.2522685873835382</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.253322352713556</v>
+        <v>0.2515706250367089</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2529532094272049</v>
+        <v>0.2505383987498802</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2522685873835382</v>
+        <v>0.2436139326462059</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2515706250367089</v>
+        <v>0.2435834673801704</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2436139326462059</v>
+        <v>0.240274787243848</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2404961602136946</v>
+        <v>0.2347696723130031</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2347696723130031</v>
+        <v>0.2332771547672634</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2345598364146164</v>
+        <v>0.2312037832886731</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2316721088617506</v>
+        <v>0.2310587223975371</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2311210143807705</v>
+        <v>0.2305317366327801</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2310587223975371</v>
+        <v>0.2289136958259765</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2304688240464143</v>
+        <v>0.2253380050865226</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2294814860203274</v>
+        <v>0.2251481442628023</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2281328595903351</v>
+        <v>0.2234992103850428</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2269585995602399</v>
+        <v>0.2192428040279157</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2253639540550969</v>
+        <v>0.2192352010228356</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2241111503776956</v>
+        <v>0.2177953030038138</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2233197552627366</v>
+        <v>0.2170986464202502</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2228033224248949</v>
+        <v>0.2149789601723739</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2227901264655527</v>
+        <v>0.2145780019153847</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2226399064364695</v>
+        <v>0.214122471544965</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2172636688435587</v>
+        <v>0.2138802857870159</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2142336860659997</v>
+        <v>0.210578141176768</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2105777520407037</v>
+        <v>0.2099131767844324</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2030642445101463</v>
+        <v>0.2078983154733163</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1983873636728395</v>
+        <v>0.2047499830800732</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1955023551647519</v>
+        <v>0.2030642445101463</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.194861313341754</v>
+        <v>0.2027680835632308</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.190300197381478</v>
+        <v>0.2027363188029254</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1873634519180067</v>
+        <v>0.202669453701583</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.182479247175924</v>
+        <v>0.1975418124744315</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1819134311716515</v>
+        <v>0.1868708406062705</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1818224583354131</v>
+        <v>0.182479247175924</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.1788800945941285</v>
+        <v>0.1796040778125849</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1750052646478362</v>
+        <v>0.1701882980067848</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1701882980067848</v>
+        <v>0.17010415785885</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1584000750579528</v>
+        <v>0.1648863292948861</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1457482832370294</v>
+        <v>0.1602361410354112</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1412336096765776</v>
+        <v>0.1597080471289136</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1393735632995894</v>
+        <v>0.1484573726160607</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1351601040665102</v>
+        <v>0.1483630655297208</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1332622913876853</v>
+        <v>0.1457482832370294</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1260378021615449</v>
+        <v>0.1377366636974173</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1199851084217163</v>
+        <v>0.1372002564909909</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.106910555227399</v>
+        <v>0.118864227369939</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1037562427758973</v>
+        <v>0.106910555227399</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.09071705120685758</v>
+        <v>0.09447746449631289</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.08133817344340866</v>
+        <v>0.09071705120685758</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.0778066475191177</v>
+        <v>0.07504801498909064</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.06761323102711714</v>
+        <v>0.06934682900118494</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.06622979004335328</v>
+        <v>0.05274896745874358</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.0210334636278402</v>
+        <v>0.03937962420022112</v>
       </c>
     </row>
     <row r="405" spans="1:2">
